--- a/scripts/R shiny app/resources/additional data/RQ_RH_consensus_ecologists_formatted for R.xlsx
+++ b/scripts/R shiny app/resources/additional data/RQ_RH_consensus_ecologists_formatted for R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maud/Documents/Work/Research/enKORE/Tasks/Task 1 - On-demand interactive analyses/ORKG interactive analyses/scripts/R shiny app/resources/additional data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36526B-ABE3-6946-BDEF-9B470A724241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF6DC9-10E5-2343-B0C7-9487FDF30EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30700" yWindow="-7580" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hyps" sheetId="4" r:id="rId1"/>
@@ -571,9 +571,6 @@
     <t>What are the introduction pathways\nof non-native species?</t>
   </si>
   <si>
-    <t>what determines a successful introduction\n of non-native species?</t>
-  </si>
-  <si>
     <t>Which taxa are impactful\ninvaders?</t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>Impact size</t>
+  </si>
+  <si>
+    <t>what determines a successful\nintroduction of non-native species?</t>
   </si>
 </sst>
 </file>
@@ -55107,8 +55107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822F61A5-6057-0E44-BF19-9E7F8BD6F44B}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55125,7 +55125,7 @@
         <v>142</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>143</v>
@@ -55145,7 +55145,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -55165,7 +55165,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -55177,7 +55177,7 @@
         <v>170</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -55185,7 +55185,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -55197,7 +55197,7 @@
         <v>167</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -55205,7 +55205,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -55217,7 +55217,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -55225,7 +55225,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -55237,7 +55237,7 @@
         <v>164</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -55245,7 +55245,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -55254,10 +55254,10 @@
         <v>160</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -55265,7 +55265,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -55274,10 +55274,10 @@
         <v>174</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -55285,7 +55285,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -55297,7 +55297,7 @@
         <v>171</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -55305,7 +55305,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -55317,7 +55317,7 @@
         <v>172</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
